--- a/download_info.xlsx
+++ b/download_info.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\joyo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104ECA77-4252-4AA1-AF8F-27B64800AE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>00_JOYO_17008_N806-MC.production.hex</t>
   </si>
@@ -44,25 +50,29 @@
   </si>
   <si>
     <t>Microchip</t>
+  </si>
+  <si>
+    <t>777777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -70,9 +80,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,7 +108,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -173,11 +180,19 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -187,44 +202,44 @@
         <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -252,14 +267,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -287,6 +319,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -298,152 +347,178 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
@@ -451,7 +526,7 @@
     <col min="4" max="4" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -465,7 +540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>888888</v>
       </c>
@@ -479,7 +554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>666666</v>
       </c>
@@ -493,6 +568,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/download_info.xlsx
+++ b/download_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\joyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104ECA77-4252-4AA1-AF8F-27B64800AE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AAF014-3548-47FF-84D6-26F42A7DB14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>00_JOYO_17008_N806-MC.production.hex</t>
   </si>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>777777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -582,6 +586,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/download_info.xlsx
+++ b/download_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\joyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AAF014-3548-47FF-84D6-26F42A7DB14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328EC609-68FD-4CE4-BDC6-A3EB5D1359D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>00_JOYO_17008_N806-MC.production.hex</t>
   </si>
@@ -58,6 +58,12 @@
   <si>
     <t>999999</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC_3AC_BT+APP.s19</t>
+  </si>
+  <si>
+    <t>SKEAZ128XXX4</t>
   </si>
 </sst>
 </file>
@@ -519,7 +525,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -591,10 +597,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -603,5 +609,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/download_info.xlsx
+++ b/download_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\joyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328EC609-68FD-4CE4-BDC6-A3EB5D1359D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5943031A-46C7-4EF7-ACE1-82BF5E87923E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,50 +20,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+  <si>
+    <t>PIC16F1516</t>
+  </si>
+  <si>
+    <t>PIC16F1517</t>
+  </si>
+  <si>
+    <t>11_JOYO_17008_N806-MC.production.hex</t>
+  </si>
+  <si>
+    <t>条码</t>
+  </si>
+  <si>
+    <t>下载文件名</t>
+  </si>
+  <si>
+    <t>单片机</t>
+  </si>
+  <si>
+    <t>厂家</t>
+  </si>
+  <si>
+    <t>NXP</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>777777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKEAZ128XXX4</t>
+  </si>
+  <si>
+    <t>下载工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PKit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jlink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>00_JOYO_17008_N806-MC.production.hex</t>
-  </si>
-  <si>
-    <t>PIC16F1516</t>
-  </si>
-  <si>
-    <t>PIC16F1517</t>
-  </si>
-  <si>
-    <t>11_JOYO_17008_N806-MC.production.hex</t>
-  </si>
-  <si>
-    <t>条码</t>
-  </si>
-  <si>
-    <t>下载文件名</t>
-  </si>
-  <si>
-    <t>单片机</t>
-  </si>
-  <si>
-    <t>厂家</t>
-  </si>
-  <si>
-    <t>NXP</t>
-  </si>
-  <si>
-    <t>Microchip</t>
-  </si>
-  <si>
-    <t>777777</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N806-MC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N807-MC</t>
+  </si>
+  <si>
+    <t>N808-MC</t>
   </si>
   <si>
     <t>FC_3AC_BT+APP.s19</t>
-  </si>
-  <si>
-    <t>SKEAZ128XXX4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC_3AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -522,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -534,76 +566,107 @@
     <col min="2" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="19.109375" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="78.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>888888</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>666666</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/download_info.xlsx
+++ b/download_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\joyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5943031A-46C7-4EF7-ACE1-82BF5E87923E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B894B3-8C64-496F-A291-9A816DFAF26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5592" yWindow="1956" windowWidth="17280" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>PIC16F1516</t>
   </si>
@@ -95,6 +95,24 @@
   </si>
   <si>
     <t>FC_3AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JY_18005_SX11_BT+APP.s19</t>
+  </si>
+  <si>
+    <t>MC9S12G128</t>
+  </si>
+  <si>
+    <t>USBDM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -669,6 +687,26 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/download_info.xlsx
+++ b/download_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\joyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B894B3-8C64-496F-A291-9A816DFAF26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CC6834-1EAD-4235-B75C-499B89483594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5592" yWindow="1956" windowWidth="17280" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="2655" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>PIC16F1516</t>
   </si>
@@ -114,6 +114,26 @@
   <si>
     <t>SX11</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V0.3</t>
+  </si>
+  <si>
+    <t>V0.2</t>
+  </si>
+  <si>
+    <t>V0.4</t>
+  </si>
+  <si>
+    <t>V0.5</t>
   </si>
 </sst>
 </file>
@@ -572,22 +592,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="78.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="78.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -595,19 +616,22 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>888888</v>
       </c>
@@ -615,19 +639,22 @@
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>666666</v>
       </c>
@@ -635,19 +662,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -655,19 +685,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -675,19 +708,22 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -695,21 +731,24 @@
         <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/download_info.xlsx
+++ b/download_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\joyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CC6834-1EAD-4235-B75C-499B89483594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DA6AA1-2575-4F86-B538-90BB3CB1B5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2655" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,7 +133,8 @@
     <t>V0.4</t>
   </si>
   <si>
-    <t>V0.5</t>
+    <t>V0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -595,7 +596,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/download_info.xlsx
+++ b/download_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\joyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DA6AA1-2575-4F86-B538-90BB3CB1B5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBF0F5B-67E3-44C3-8EC0-81467A3B53E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2655" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,10 +130,11 @@
     <t>V0.2</t>
   </si>
   <si>
-    <t>V0.4</t>
-  </si>
-  <si>
     <t>V0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V0.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +597,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -709,7 +710,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -732,7 +733,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>

--- a/download_info.xlsx
+++ b/download_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\joyo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\zzq\QTprj\build-aDownload-Desktop_Qt_5_14_2_MinGW_32_bit-Release\release\download_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBF0F5B-67E3-44C3-8EC0-81467A3B53E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1965AC1-90E7-4E30-9199-363CB4B3C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2655" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>PIC16F1516</t>
   </si>
@@ -37,12 +37,6 @@
     <t>下载文件名</t>
   </si>
   <si>
-    <t>单片机</t>
-  </si>
-  <si>
-    <t>厂家</t>
-  </si>
-  <si>
     <t>NXP</t>
   </si>
   <si>
@@ -135,6 +129,22 @@
   </si>
   <si>
     <t>V0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/8/28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单片机型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单片机厂家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,23 +604,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="7" max="7" width="78.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="78.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -618,45 +630,51 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>888888</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>666666</v>
       </c>
@@ -664,88 +682,100 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
